--- a/21_população-por-macroárea_2000-2050.xlsx
+++ b/21_população-por-macroárea_2000-2050.xlsx
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ano</t>
+          <t>DT_ANO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -390,12 +390,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>MRVRA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MRVU</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MRVURA</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -426,10 +426,10 @@
         <v>2385706</v>
       </c>
       <c r="G2">
+        <v>1488401</v>
+      </c>
+      <c r="H2">
         <v>2455018</v>
-      </c>
-      <c r="H2">
-        <v>1488401</v>
       </c>
       <c r="I2">
         <v>1008843</v>
@@ -457,10 +457,10 @@
         <v>2429602</v>
       </c>
       <c r="G3">
+        <v>1583427</v>
+      </c>
+      <c r="H3">
         <v>2546886</v>
-      </c>
-      <c r="H3">
-        <v>1583427</v>
       </c>
       <c r="I3">
         <v>1055663</v>
@@ -488,10 +488,10 @@
         <v>2462176</v>
       </c>
       <c r="G4">
+        <v>1668891</v>
+      </c>
+      <c r="H4">
         <v>2619878</v>
-      </c>
-      <c r="H4">
-        <v>1668891</v>
       </c>
       <c r="I4">
         <v>1098934</v>
@@ -519,10 +519,10 @@
         <v>2484652</v>
       </c>
       <c r="G5">
+        <v>1753550</v>
+      </c>
+      <c r="H5">
         <v>2701524</v>
-      </c>
-      <c r="H5">
-        <v>1753550</v>
       </c>
       <c r="I5">
         <v>1122122</v>
@@ -550,10 +550,10 @@
         <v>2499083</v>
       </c>
       <c r="G6">
+        <v>1833713</v>
+      </c>
+      <c r="H6">
         <v>2778383</v>
-      </c>
-      <c r="H6">
-        <v>1833713</v>
       </c>
       <c r="I6">
         <v>1133875</v>
@@ -581,10 +581,10 @@
         <v>2504408</v>
       </c>
       <c r="G7">
+        <v>1905309</v>
+      </c>
+      <c r="H7">
         <v>2849370</v>
-      </c>
-      <c r="H7">
-        <v>1905309</v>
       </c>
       <c r="I7">
         <v>1131941</v>
@@ -612,10 +612,10 @@
         <v>2495638</v>
       </c>
       <c r="G8">
+        <v>1964681</v>
+      </c>
+      <c r="H8">
         <v>2905537</v>
-      </c>
-      <c r="H8">
-        <v>1964681</v>
       </c>
       <c r="I8">
         <v>1115578</v>
@@ -643,10 +643,10 @@
         <v>2477043</v>
       </c>
       <c r="G9">
+        <v>2014848</v>
+      </c>
+      <c r="H9">
         <v>2950206</v>
-      </c>
-      <c r="H9">
-        <v>2014848</v>
       </c>
       <c r="I9">
         <v>1089595</v>
@@ -674,10 +674,10 @@
         <v>2447550</v>
       </c>
       <c r="G10">
+        <v>2053754</v>
+      </c>
+      <c r="H10">
         <v>2981190</v>
-      </c>
-      <c r="H10">
-        <v>2053754</v>
       </c>
       <c r="I10">
         <v>1056867</v>
@@ -705,10 +705,10 @@
         <v>2411218</v>
       </c>
       <c r="G11">
+        <v>2084148</v>
+      </c>
+      <c r="H11">
         <v>3001852</v>
-      </c>
-      <c r="H11">
-        <v>2084148</v>
       </c>
       <c r="I11">
         <v>1020865</v>
@@ -736,10 +736,10 @@
         <v>2355306</v>
       </c>
       <c r="G12">
+        <v>2094189</v>
+      </c>
+      <c r="H12">
         <v>2993755</v>
-      </c>
-      <c r="H12">
-        <v>2094189</v>
       </c>
       <c r="I12">
         <v>977504</v>

--- a/21_população-por-macroárea_2000-2050.xlsx
+++ b/21_população-por-macroárea_2000-2050.xlsx
@@ -411,28 +411,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>818212</v>
+        <v>803404</v>
       </c>
       <c r="C2">
-        <v>166238</v>
+        <v>164860</v>
       </c>
       <c r="D2">
-        <v>2063521</v>
+        <v>2072096</v>
       </c>
       <c r="E2">
-        <v>40444</v>
+        <v>18021</v>
       </c>
       <c r="F2">
-        <v>2385706</v>
+        <v>2389832</v>
       </c>
       <c r="G2">
-        <v>1488401</v>
+        <v>1504848</v>
       </c>
       <c r="H2">
-        <v>2455018</v>
+        <v>2463655</v>
       </c>
       <c r="I2">
-        <v>1008843</v>
+        <v>1009668</v>
       </c>
     </row>
     <row r="3">
@@ -442,28 +442,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>871014</v>
+        <v>855598</v>
       </c>
       <c r="C3">
-        <v>180267</v>
+        <v>178827</v>
       </c>
       <c r="D3">
-        <v>2155022</v>
+        <v>2164006</v>
       </c>
       <c r="E3">
-        <v>43692</v>
+        <v>19503</v>
       </c>
       <c r="F3">
-        <v>2429602</v>
+        <v>2433739</v>
       </c>
       <c r="G3">
-        <v>1583427</v>
+        <v>1601535</v>
       </c>
       <c r="H3">
-        <v>2546886</v>
+        <v>2555829</v>
       </c>
       <c r="I3">
-        <v>1055663</v>
+        <v>1056535</v>
       </c>
     </row>
     <row r="4">
@@ -473,28 +473,28 @@
         </is>
       </c>
       <c r="B4">
-        <v>918635</v>
+        <v>902710</v>
       </c>
       <c r="C4">
-        <v>192809</v>
+        <v>191319</v>
       </c>
       <c r="D4">
-        <v>2237981</v>
+        <v>2247321</v>
       </c>
       <c r="E4">
-        <v>46679</v>
+        <v>20871</v>
       </c>
       <c r="F4">
-        <v>2462176</v>
+        <v>2466303</v>
       </c>
       <c r="G4">
-        <v>1668891</v>
+        <v>1688557</v>
       </c>
       <c r="H4">
-        <v>2619878</v>
+        <v>2629058</v>
       </c>
       <c r="I4">
-        <v>1098934</v>
+        <v>1099843</v>
       </c>
     </row>
     <row r="5">
@@ -504,28 +504,28 @@
         </is>
       </c>
       <c r="B5">
-        <v>963285</v>
+        <v>946815</v>
       </c>
       <c r="C5">
-        <v>204609</v>
+        <v>203060</v>
       </c>
       <c r="D5">
-        <v>2302645</v>
+        <v>2312338</v>
       </c>
       <c r="E5">
-        <v>49410</v>
+        <v>22117</v>
       </c>
       <c r="F5">
-        <v>2484652</v>
+        <v>2488768</v>
       </c>
       <c r="G5">
-        <v>1753550</v>
+        <v>1774650</v>
       </c>
       <c r="H5">
-        <v>2701524</v>
+        <v>2710999</v>
       </c>
       <c r="I5">
-        <v>1122122</v>
+        <v>1123052</v>
       </c>
     </row>
     <row r="6">
@@ -535,28 +535,28 @@
         </is>
       </c>
       <c r="B6">
-        <v>1004494</v>
+        <v>987490</v>
       </c>
       <c r="C6">
-        <v>215979</v>
+        <v>214372</v>
       </c>
       <c r="D6">
-        <v>2352346</v>
+        <v>2362353</v>
       </c>
       <c r="E6">
-        <v>51787</v>
+        <v>23202</v>
       </c>
       <c r="F6">
-        <v>2499083</v>
+        <v>2503180</v>
       </c>
       <c r="G6">
-        <v>1833713</v>
+        <v>1856094</v>
       </c>
       <c r="H6">
-        <v>2778383</v>
+        <v>2788154</v>
       </c>
       <c r="I6">
-        <v>1133875</v>
+        <v>1134816</v>
       </c>
     </row>
     <row r="7">
@@ -566,28 +566,28 @@
         </is>
       </c>
       <c r="B7">
-        <v>1039672</v>
+        <v>1022179</v>
       </c>
       <c r="C7">
-        <v>226065</v>
+        <v>224406</v>
       </c>
       <c r="D7">
-        <v>2386775</v>
+        <v>2397053</v>
       </c>
       <c r="E7">
-        <v>53820</v>
+        <v>24128</v>
       </c>
       <c r="F7">
-        <v>2504408</v>
+        <v>2508480</v>
       </c>
       <c r="G7">
-        <v>1905309</v>
+        <v>1928808</v>
       </c>
       <c r="H7">
-        <v>2849370</v>
+        <v>2859422</v>
       </c>
       <c r="I7">
-        <v>1131941</v>
+        <v>1132884</v>
       </c>
     </row>
     <row r="8">
@@ -597,28 +597,28 @@
         </is>
       </c>
       <c r="B8">
-        <v>1067546</v>
+        <v>1049643</v>
       </c>
       <c r="C8">
-        <v>234655</v>
+        <v>232951</v>
       </c>
       <c r="D8">
-        <v>2403894</v>
+        <v>2414387</v>
       </c>
       <c r="E8">
-        <v>55441</v>
+        <v>24865</v>
       </c>
       <c r="F8">
-        <v>2495638</v>
+        <v>2499665</v>
       </c>
       <c r="G8">
-        <v>1964681</v>
+        <v>1989122</v>
       </c>
       <c r="H8">
-        <v>2905537</v>
+        <v>2915823</v>
       </c>
       <c r="I8">
-        <v>1115578</v>
+        <v>1116514</v>
       </c>
     </row>
     <row r="9">
@@ -628,28 +628,28 @@
         </is>
       </c>
       <c r="B9">
-        <v>1089965</v>
+        <v>1071729</v>
       </c>
       <c r="C9">
-        <v>242154</v>
+        <v>240407</v>
       </c>
       <c r="D9">
-        <v>2409739</v>
+        <v>2420399</v>
       </c>
       <c r="E9">
-        <v>56772</v>
+        <v>25469</v>
       </c>
       <c r="F9">
-        <v>2477043</v>
+        <v>2481010</v>
       </c>
       <c r="G9">
-        <v>2014848</v>
+        <v>2040094</v>
       </c>
       <c r="H9">
-        <v>2950206</v>
+        <v>2960696</v>
       </c>
       <c r="I9">
-        <v>1089595</v>
+        <v>1090518</v>
       </c>
     </row>
     <row r="10">
@@ -659,28 +659,28 @@
         </is>
       </c>
       <c r="B10">
-        <v>1105960</v>
+        <v>1087484</v>
       </c>
       <c r="C10">
-        <v>248222</v>
+        <v>246439</v>
       </c>
       <c r="D10">
-        <v>2403417</v>
+        <v>2414184</v>
       </c>
       <c r="E10">
-        <v>57736</v>
+        <v>25904</v>
       </c>
       <c r="F10">
-        <v>2447550</v>
+        <v>2451439</v>
       </c>
       <c r="G10">
-        <v>2053754</v>
+        <v>2079634</v>
       </c>
       <c r="H10">
-        <v>2981190</v>
+        <v>2991838</v>
       </c>
       <c r="I10">
-        <v>1056867</v>
+        <v>1057773</v>
       </c>
     </row>
     <row r="11">
@@ -690,28 +690,28 @@
         </is>
       </c>
       <c r="B11">
-        <v>1117028</v>
+        <v>1098392</v>
       </c>
       <c r="C11">
-        <v>253209</v>
+        <v>251392</v>
       </c>
       <c r="D11">
-        <v>2388946</v>
+        <v>2399775</v>
       </c>
       <c r="E11">
-        <v>58444</v>
+        <v>26221</v>
       </c>
       <c r="F11">
-        <v>2411218</v>
+        <v>2415019</v>
       </c>
       <c r="G11">
-        <v>2084148</v>
+        <v>2110533</v>
       </c>
       <c r="H11">
-        <v>3001852</v>
+        <v>3012627</v>
       </c>
       <c r="I11">
-        <v>1020865</v>
+        <v>1021752</v>
       </c>
     </row>
     <row r="12">
@@ -721,28 +721,28 @@
         </is>
       </c>
       <c r="B12">
-        <v>1117309</v>
+        <v>1098693</v>
       </c>
       <c r="C12">
-        <v>255833</v>
+        <v>254000</v>
       </c>
       <c r="D12">
-        <v>2352806</v>
+        <v>2363589</v>
       </c>
       <c r="E12">
-        <v>58590</v>
+        <v>26287</v>
       </c>
       <c r="F12">
-        <v>2355306</v>
+        <v>2358993</v>
       </c>
       <c r="G12">
-        <v>2094189</v>
+        <v>2120808</v>
       </c>
       <c r="H12">
-        <v>2993755</v>
+        <v>3004557</v>
       </c>
       <c r="I12">
-        <v>977504</v>
+        <v>978364</v>
       </c>
     </row>
   </sheetData>
